--- a/biology/Zoologie/Heteropoda_schwendingeri/Heteropoda_schwendingeri.xlsx
+++ b/biology/Zoologie/Heteropoda_schwendingeri/Heteropoda_schwendingeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteropoda schwendingeri est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteropoda schwendingeri est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Chumpon en Thaïlande[1],[2]. Elle se rencontre à l'intérieur de la grotte Nam Lod Yai.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Chumpon en Thaïlande,. Elle se rencontre à l'intérieur de la grotte Nam Lod Yai.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 13,3 mm de long sur 11,6 mm et l'abdomen 13,5 mm de long sur 7,3 mm[2]. Le mâle est jaune-brun à brun clair.
-La carapace de la femelle mesure de 12,9 à 13,4 mm de long sur de 10,8 à 11,7 mm et l'abdomen de 11,2 à 17,2 mm de long sur de 6,7 à 12,3 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 13,3 mm de long sur 11,6 mm et l'abdomen 13,5 mm de long sur 7,3 mm. Le mâle est jaune-brun à brun clair.
+La carapace de la femelle mesure de 12,9 à 13,4 mm de long sur de 10,8 à 11,7 mm et l'abdomen de 11,2 à 17,2 mm de long sur de 6,7 à 12,3 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Peter J. Schwendinger[2], arachnologiste au muséum d'histoire naturelle de Genève, établissement qui conserve l'holotype.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Peter J. Schwendinger, arachnologiste au muséum d'histoire naturelle de Genève, établissement qui conserve l'holotype.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jäger, 2005 : New large-sized cave-dwelling Heteropoda species from Asia, with notes on their relationships (Araneae: Sparassidae: Heteropodinae). Revue suisse de zoologie, vol. 112, no 1, p. 87-114 (texte intégral).</t>
         </is>
